--- a/随从数值平衡表.xlsx
+++ b/随从数值平衡表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
   <si>
     <t>Metal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,88 +109,365 @@
     <t>钢加农</t>
   </si>
   <si>
+    <t>大魔分队</t>
+  </si>
+  <si>
+    <t>Mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX-782</t>
+  </si>
+  <si>
+    <t>Mistery</t>
+  </si>
+  <si>
+    <t>Repair Team X</t>
+  </si>
+  <si>
+    <t>Repair Team XX</t>
+  </si>
+  <si>
+    <t>Repair Team XXX</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Mech Mine II</t>
+  </si>
+  <si>
+    <t>Mech Mine I</t>
+  </si>
+  <si>
+    <t>Field Engineer</t>
+  </si>
+  <si>
+    <t>Field Engineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun Canon</t>
+  </si>
+  <si>
+    <t>Evil Gundam</t>
+  </si>
+  <si>
+    <t>Dom Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillAllEnemySoldiers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageRandom5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddLife2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddLife3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddLife4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热能斧</t>
+  </si>
+  <si>
+    <t>Thermal Axe</t>
+  </si>
+  <si>
+    <t>高能热能斧</t>
+  </si>
+  <si>
+    <t>S Thermal Axe</t>
+  </si>
+  <si>
+    <t>SP Thermal Axe</t>
+  </si>
+  <si>
+    <t>狂暴热能斧</t>
+  </si>
+  <si>
+    <t>匕首</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>机枪</t>
+  </si>
+  <si>
+    <t>M-Gun</t>
+  </si>
+  <si>
+    <t>连射机枪</t>
+  </si>
+  <si>
+    <t>S M-Gun</t>
+  </si>
+  <si>
+    <t>SP M-Gun</t>
+  </si>
+  <si>
+    <t>高速机枪</t>
+  </si>
+  <si>
+    <t>光子护盾Ⅰ</t>
+  </si>
+  <si>
+    <t>光子护盾Ⅱ</t>
+  </si>
+  <si>
+    <t>光子护盾Ⅲ</t>
+  </si>
+  <si>
+    <t>SP LightShield</t>
+  </si>
+  <si>
+    <t>新兵盾牌Ⅰ</t>
+  </si>
+  <si>
+    <t>新兵盾牌Ⅱ</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>S Armor</t>
+  </si>
+  <si>
+    <t>SP Armor</t>
+  </si>
+  <si>
+    <t>新兵盾牌Ⅲ</t>
+  </si>
+  <si>
+    <t>Pack测试</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>MA测试</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>TypeFactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechs Balance Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipments Balance Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageRandomEnemySoldier10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>恶魔高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnSelfAttack -&gt; Heal2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>独角兽高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unicorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽高达H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnDie -&gt; Summon Self(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新安洲</t>
-  </si>
-  <si>
-    <t>大魔分队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>强袭自由</t>
-  </si>
-  <si>
-    <t>Mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX-782</t>
-  </si>
-  <si>
-    <t>Mistery</t>
-  </si>
-  <si>
-    <t>Repair Team X</t>
-  </si>
-  <si>
-    <t>Repair Team XX</t>
-  </si>
-  <si>
-    <t>Repair Team XXX</t>
-  </si>
-  <si>
-    <t>Defence</t>
-  </si>
-  <si>
-    <t>Mech Mine II</t>
-  </si>
-  <si>
-    <t>Mech Mine I</t>
-  </si>
-  <si>
-    <t>Field Engineer</t>
-  </si>
-  <si>
-    <t>Field Engineer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gun Canon</t>
-  </si>
-  <si>
-    <t>Evil Gundam</t>
-  </si>
-  <si>
-    <t>Unicorn</t>
-  </si>
-  <si>
-    <t>New Zeon</t>
-  </si>
-  <si>
-    <t>Dom Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StrikeFreedom</t>
-  </si>
-  <si>
-    <t>Skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KillAllEnemySoldiers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike Freedom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Swing</t>
+  </si>
+  <si>
+    <t>全装甲独角兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA Unicorn</t>
+  </si>
+  <si>
+    <t>Gundam Dynames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillOne -&gt; Self Attack +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装强袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taunt, OnRetinueSummon-&gt;DamageRandom2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德天使高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Virtue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主天使高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Kyrios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillOne -&gt; Self WeaponEnergy +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能天使高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能天使高达X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Exia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力天使高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Dynames X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力天使高达X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Exia X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德天使高达X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Virtue X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主天使高达X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Kyrios X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,147 +475,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageRandomEnemySoldier5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageRandom5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddLife2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddLife3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddLife4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnRetinueSummon-&gt;DamageRandom2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热能斧</t>
-  </si>
-  <si>
-    <t>Thermal Axe</t>
-  </si>
-  <si>
-    <t>高能热能斧</t>
-  </si>
-  <si>
-    <t>S Thermal Axe</t>
-  </si>
-  <si>
-    <t>SP Thermal Axe</t>
-  </si>
-  <si>
-    <t>狂暴热能斧</t>
-  </si>
-  <si>
-    <t>匕首</t>
-  </si>
-  <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>机枪</t>
-  </si>
-  <si>
-    <t>M-Gun</t>
-  </si>
-  <si>
-    <t>连射机枪</t>
-  </si>
-  <si>
-    <t>S M-Gun</t>
-  </si>
-  <si>
-    <t>SP M-Gun</t>
-  </si>
-  <si>
-    <t>高速机枪</t>
-  </si>
-  <si>
-    <t>光子护盾Ⅰ</t>
-  </si>
-  <si>
-    <t>光子护盾Ⅱ</t>
-  </si>
-  <si>
-    <t>光子护盾Ⅲ</t>
-  </si>
-  <si>
-    <t>SP LightShield</t>
-  </si>
-  <si>
-    <t>新兵盾牌Ⅰ</t>
-  </si>
-  <si>
-    <t>新兵盾牌Ⅱ</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>S Armor</t>
-  </si>
-  <si>
-    <t>SP Armor</t>
-  </si>
-  <si>
-    <t>新兵盾牌Ⅲ</t>
-  </si>
-  <si>
-    <t>Pack测试</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
-    <t>MA测试</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>TypeFactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mechs Balance Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipments Balance Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S Shield</t>
+    <t>Taunt,DrawCards1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>God Gundam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突袭小队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔[攻击]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dom(Attack)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔[防守]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dom(Defence)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突袭者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon Dom(Attack) and Dom(Defence)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon Striker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Striker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击型吉姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper Jim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAT-X131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX-785</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,13 +840,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,49 +1131,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="17" max="17" width="31.375" customWidth="1"/>
+    <col min="17" max="17" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1001,22 +1206,22 @@
         <v>9</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
@@ -1058,20 +1263,22 @@
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="13">
-        <f>(-3)*C3+(-1)*D3+1*E3+3*F3+2*G3+1*H3+3*I3+3*J3+5*K3+5*L3+M3+N3</f>
+        <f t="shared" ref="O3:O22" si="0">(-3)*C3+(-1)*D3+1*E3+3*F3+(IF( G3&gt;3, 5*(G3-3)+3*3,3*G3))+1*H3+3*I3+3*J3+5*K3+5*L3+M3+N3</f>
         <v>20</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="10">
+        <v>400</v>
+      </c>
       <c r="Q3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -1108,23 +1315,31 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="13">
-        <f t="shared" ref="O4:O20" si="0">(-3)*C4+(-1)*D4+1*E4+3*F4+2*G4+1*H4+3*I4+3*J4+5*K4+5*L4+M4+N4</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="10">
+        <v>200</v>
+      </c>
       <c r="Q4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="S4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C5" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -1139,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -1151,45 +1366,49 @@
         <v>1</v>
       </c>
       <c r="L5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="12">
         <v>3</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="12">
+        <v>10</v>
+      </c>
       <c r="O5" s="13">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P5" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="P5" s="10">
+        <v>400</v>
+      </c>
       <c r="Q5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
@@ -1201,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="12">
         <v>10</v>
@@ -1209,81 +1428,99 @@
       <c r="N6" s="12"/>
       <c r="O6" s="13">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="P6" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="P6" s="10">
+        <v>350</v>
+      </c>
       <c r="Q6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F7" s="10">
         <v>2</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="12">
-        <v>2</v>
-      </c>
-      <c r="N7" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="N7" s="12">
+        <v>10</v>
+      </c>
       <c r="O7" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P7" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="P7" s="10">
+        <v>700</v>
+      </c>
       <c r="Q7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -1292,60 +1529,68 @@
         <v>0</v>
       </c>
       <c r="I8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="11">
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="11">
         <v>0</v>
       </c>
       <c r="M8" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P8" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="P8" s="10">
+        <v>250</v>
+      </c>
       <c r="Q8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C9" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
       </c>
       <c r="H9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="11">
         <v>0</v>
@@ -1354,191 +1599,220 @@
         <v>0</v>
       </c>
       <c r="M9" s="12">
-        <v>4</v>
+        <f>O10</f>
+        <v>26</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="13">
         <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P9" s="10">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
         <v>7</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="9">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>4</v>
-      </c>
       <c r="F10" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="11">
         <v>0</v>
       </c>
-      <c r="M10" s="12"/>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
       <c r="N10" s="12"/>
       <c r="O10" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C11" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
       </c>
       <c r="E11" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F11" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="11">
         <v>0</v>
       </c>
       <c r="K11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
       </c>
       <c r="M11" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="P11" s="10">
+        <v>250</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C12" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
       <c r="E12" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F12" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
       </c>
       <c r="I12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P12" s="10">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E13" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
@@ -1550,79 +1824,93 @@
         <v>0</v>
       </c>
       <c r="M13" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P13" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="P13" s="10">
+        <v>200</v>
+      </c>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C14" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
       </c>
       <c r="E14" s="10">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="12">
-        <v>5</v>
-      </c>
-      <c r="N14" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>10</v>
+      </c>
       <c r="O14" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="P14" s="10">
+        <v>700</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="C15" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="10">
         <v>3</v>
@@ -1634,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="11">
         <v>0</v>
@@ -1645,85 +1933,97 @@
       <c r="L15" s="11">
         <v>0</v>
       </c>
-      <c r="M15" s="12"/>
+      <c r="M15" s="12">
+        <v>10</v>
+      </c>
       <c r="N15" s="12"/>
       <c r="O15" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="P15" s="10">
+        <v>250</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="C16" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10">
         <v>3</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
       <c r="G16" s="10">
         <v>0</v>
       </c>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="11">
         <v>0</v>
       </c>
-      <c r="M16" s="12"/>
+      <c r="M16" s="12">
+        <v>10</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="P16" s="10">
+        <v>300</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C17" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="11">
         <v>1</v>
@@ -1738,87 +2038,99 @@
         <v>0</v>
       </c>
       <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="N17" s="12">
+        <v>10</v>
+      </c>
       <c r="O17" s="13">
         <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="P17" s="10">
+        <v>250</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C18" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="11">
         <v>1</v>
       </c>
       <c r="J18" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="N18" s="12">
+        <v>10</v>
+      </c>
       <c r="O18" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="P18" s="10">
+        <v>300</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C19" s="9">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
         <v>3</v>
       </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
       <c r="H19" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="11">
         <v>0</v>
@@ -1830,44 +2142,50 @@
         <v>0</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="N19" s="12">
+        <v>10</v>
+      </c>
       <c r="O19" s="13">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="P19" s="10">
+        <v>250</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C20" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="11">
         <v>0</v>
@@ -1876,209 +2194,303 @@
         <v>0</v>
       </c>
       <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="N20" s="12">
+        <v>10</v>
+      </c>
       <c r="O20" s="13">
         <f t="shared" si="0"/>
-        <v>-17</v>
-      </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="P20" s="10">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10">
+        <v>6</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>5</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="10">
+        <v>250</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="9">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10">
+        <v>4</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="P22" s="10">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="A23" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9">
+        <v>15</v>
+      </c>
+      <c r="E23" s="10">
         <v>3</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="7" t="s">
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>6</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12">
         <v>10</v>
       </c>
-      <c r="O23" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23" s="21"/>
+      <c r="O23" s="13">
+        <f>(-3)*C23+(-1)*D23+1*E23+3*F23+(IF( G23&gt;3, 5*(G23-3)+3*3,3*G23))+1*H23+3*I23+3*J23+5*K23+5*L23+M23+N23</f>
+        <v>13</v>
+      </c>
+      <c r="P23" s="10">
+        <v>400</v>
+      </c>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
-        <v>5</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13">
-        <f>(-3)*C24+(-1)*D24+E24*(1*F24+0.5*G24+0.3*H24+2*I24+1*J24)+K24+L24</f>
-        <v>-4.5</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="19"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>2</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13">
+        <f t="shared" ref="O25:O40" si="1">(-3)*C25+(-1)*D25+1*E25+3*F25+(IF( G25&gt;3, 5*(G25-3)+3*3,3*G25))+1*H25+3*I25+3*J25+5*K25+5*L25+M25+N25</f>
         <v>3</v>
       </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>2</v>
-      </c>
-      <c r="H25" s="10">
-        <v>6</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0</v>
-      </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13">
-        <f t="shared" ref="M25:M38" si="1">(-3)*C25+(-1)*D25+E25*(1*F25+0.5*G25+0.3*H25+2*I25+1*J25)+K25+L25</f>
-        <v>-3.3000000000000007</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="19"/>
+      <c r="P25" s="10">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>2</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
         <v>3</v>
       </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>3</v>
-      </c>
-      <c r="H26" s="10">
-        <v>7</v>
-      </c>
-      <c r="I26" s="10">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13">
+      <c r="N26" s="12"/>
+      <c r="O26" s="13">
         <f t="shared" si="1"/>
-        <v>-2.1000000000000005</v>
-      </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="P26" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C27" s="9">
         <v>2</v>
@@ -2086,81 +2498,97 @@
       <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="E27" s="17">
-        <v>1.5</v>
+      <c r="E27" s="10">
+        <v>3</v>
       </c>
       <c r="F27" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="10">
-        <v>3</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0</v>
-      </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>4</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13">
         <f t="shared" si="1"/>
-        <v>-0.90000000000000036</v>
-      </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="P27" s="10">
+        <v>150</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C28" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="17">
-        <v>1</v>
+      <c r="E28" s="10">
+        <v>4</v>
       </c>
       <c r="F28" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H28" s="10">
-        <v>5</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0</v>
-      </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13">
+        <v>3</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C29" s="9">
         <v>2</v>
@@ -2168,90 +2596,112 @@
       <c r="D29" s="9">
         <v>0</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="10">
         <v>1</v>
       </c>
       <c r="F29" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29" s="10">
-        <v>6</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0</v>
-      </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>5</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13">
         <f t="shared" si="1"/>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C30" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H30" s="10">
-        <v>7</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0</v>
-      </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>5</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13">
         <f t="shared" si="1"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="P30" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C31" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
       </c>
-      <c r="E31" s="17">
-        <v>2</v>
+      <c r="E31" s="10">
+        <v>1</v>
       </c>
       <c r="F31" s="10">
         <v>0</v>
@@ -2262,26 +2712,37 @@
       <c r="H31" s="10">
         <v>0</v>
       </c>
-      <c r="I31" s="10">
-        <v>1</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13">
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>3</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="10">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C32" s="9">
         <v>2</v>
@@ -2289,7 +2750,7 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="10">
         <v>2</v>
       </c>
       <c r="F32" s="10">
@@ -2301,28 +2762,37 @@
       <c r="H32" s="10">
         <v>0</v>
       </c>
-      <c r="I32" s="10">
-        <v>2</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13">
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12">
+        <v>5</v>
+      </c>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="P32" s="10">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9">
         <v>3</v>
@@ -2330,11 +2800,11 @@
       <c r="D33" s="9">
         <v>0</v>
       </c>
-      <c r="E33" s="17">
-        <v>2</v>
+      <c r="E33" s="10">
+        <v>4</v>
       </c>
       <c r="F33" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
@@ -2342,243 +2812,1123 @@
       <c r="H33" s="10">
         <v>0</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P33" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="9">
         <v>3</v>
       </c>
-      <c r="J33" s="10">
-        <v>0</v>
-      </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13">
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>2</v>
+      </c>
+      <c r="F34" s="10">
+        <v>3</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
+        <f>O35</f>
+        <v>5</v>
+      </c>
+      <c r="N34" s="12">
+        <f>O36</f>
+        <v>12</v>
+      </c>
+      <c r="O34" s="13">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P34" s="10">
+        <v>400</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="13">
+        <f t="shared" ref="O35" si="2">(-3)*C35+(-1)*D35+1*E35+3*F35+(IF( G35&gt;3, 5*(G35-3)+3*3,3*G35))+1*H35+3*I35+3*J35+5*K35+5*L35+M35+N35</f>
+        <v>5</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>4</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12">
+        <f>O41</f>
+        <v>4</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P37" s="10">
+        <v>200</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A38" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A39" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="9">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12">
+        <v>20</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="P39" s="10">
+        <v>400</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="9">
         <v>3</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
-    </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>7</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12">
+        <v>10</v>
+      </c>
+      <c r="O40" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="P40" s="10">
+        <v>200</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A41" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="9">
+        <v>5</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>8</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>5</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="13">
+        <f t="shared" ref="O41" si="3">(-3)*C41+(-1)*D41+1*E41+3*F41+(IF( G41&gt;3, 5*(G41-3)+3*3,3*G41))+1*H41+3*I41+3*J41+5*K41+5*L41+M41+N41</f>
+        <v>4</v>
+      </c>
+      <c r="P41" s="10">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>0</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="H44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="19"/>
-    </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="9">
-        <v>2</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0</v>
-      </c>
-      <c r="E35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="10">
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="22"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A45" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="9">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10">
+        <v>5</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="13">
+        <f>(-3)*C45+(-1)*D45+E45*(1*F45+0.5*G45+0.3*H45+2*I45+1*J45)+K45+L45</f>
+        <v>-4.5</v>
+      </c>
+      <c r="N45" s="10"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="9">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>2</v>
+      </c>
+      <c r="H46" s="10">
         <v>6</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="19"/>
-    </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="13">
+        <f t="shared" ref="M46:M59" si="4">(-3)*C46+(-1)*D46+E46*(1*F46+0.5*G46+0.3*H46+2*I46+1*J46)+K46+L46</f>
+        <v>-3.3000000000000007</v>
+      </c>
+      <c r="N46" s="10"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A47" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="9">
         <v>3</v>
       </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10">
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10">
+        <v>3</v>
+      </c>
+      <c r="H47" s="10">
+        <v>7</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="13">
+        <f t="shared" si="4"/>
+        <v>-2.1000000000000005</v>
+      </c>
+      <c r="N47" s="10"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A48" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F48" s="10">
+        <v>2</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+      <c r="H48" s="10">
+        <v>3</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="13">
+        <f t="shared" si="4"/>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="N48" s="10"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="19"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A49" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="9">
+        <v>2</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>5</v>
+      </c>
+      <c r="H49" s="10">
+        <v>5</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10">
+        <v>0</v>
+      </c>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="13">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="19"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="9">
+        <v>2</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="17">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10">
+        <v>6</v>
+      </c>
+      <c r="H50" s="10">
+        <v>6</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="13">
+        <f t="shared" si="4"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="19"/>
+    </row>
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A51" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="9">
+        <v>2</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="17">
+        <v>1</v>
+      </c>
+      <c r="F51" s="10">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10">
+        <v>7</v>
+      </c>
+      <c r="H51" s="10">
+        <v>7</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="13">
+        <f t="shared" si="4"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A52" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="9">
+        <v>2</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <v>2</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="13">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="N52" s="10"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="19"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A53" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="9">
+        <v>2</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17">
+        <v>2</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
+        <v>2</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0</v>
+      </c>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N53" s="10"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A54" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="9">
+        <v>3</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="17">
+        <v>2</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
+        <v>3</v>
+      </c>
+      <c r="J54" s="10">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N54" s="10"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="19"/>
+    </row>
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A55" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="17">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10">
+        <v>4</v>
+      </c>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N55" s="10"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="19"/>
+    </row>
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A56" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="9">
+        <v>2</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="17">
+        <v>1</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10">
+        <v>6</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="10"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="19"/>
+    </row>
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="9">
+        <v>3</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17">
+        <v>1</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0</v>
+      </c>
+      <c r="J57" s="10">
         <v>8</v>
       </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="13">
-        <f t="shared" si="1"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="13">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
-    </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="9">
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
+      <c r="N57" s="10"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="19"/>
+    </row>
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A58" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17">
         <v>2.5</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10">
-        <v>0</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A38" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
+      <c r="F58" s="10"/>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0</v>
+      </c>
+      <c r="J58" s="10">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="10"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="19"/>
+    </row>
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A59" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" s="17">
         <v>2.5</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0</v>
-      </c>
-      <c r="I38" s="10">
-        <v>0</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0</v>
-      </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="10"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="19"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0</v>
+      </c>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="10"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O52:P52"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O49:P49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/随从数值平衡表.xlsx
+++ b/随从数值平衡表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
   <si>
     <t>Metal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,315 +235,376 @@
     <t>高速机枪</t>
   </si>
   <si>
-    <t>光子护盾Ⅰ</t>
-  </si>
-  <si>
-    <t>光子护盾Ⅱ</t>
-  </si>
-  <si>
-    <t>光子护盾Ⅲ</t>
-  </si>
-  <si>
-    <t>SP LightShield</t>
+    <t>新兵盾牌Ⅱ</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>S Armor</t>
+  </si>
+  <si>
+    <t>SP Armor</t>
+  </si>
+  <si>
+    <t>新兵盾牌Ⅲ</t>
+  </si>
+  <si>
+    <t>Pack测试</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>MA测试</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>TypeFactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechs Balance Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipments Balance Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageRandomEnemySoldier10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnSelfAttack -&gt; Heal2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unicorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽高达H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnDie -&gt; Summon Self(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新安洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike Freedom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Swing</t>
+  </si>
+  <si>
+    <t>全装甲独角兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA Unicorn</t>
+  </si>
+  <si>
+    <t>Gundam Dynames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillOne -&gt; Self Attack +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装强袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taunt, OnRetinueSummon-&gt;DamageRandom2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德天使高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Virtue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主天使高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Kyrios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillOne -&gt; Self WeaponEnergy +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能天使高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能天使高达X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Exia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力天使高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Dynames X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力天使高达X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Exia X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德天使高达X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Virtue X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主天使高达X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gundam Kyrios X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawCards2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taunt,DrawCards1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>God Gundam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突袭小队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔[攻击]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dom(Attack)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔[防守]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dom(Defence)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突袭者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon Dom(Attack) and Dom(Defence)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon Striker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Striker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击型吉姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper Jim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAT-X131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX-785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-08TX[EXAM]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊芙利特改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子步枪I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Rifle I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子步枪II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Rifle II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Rifle III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新兵盾牌Ⅰ</t>
-  </si>
-  <si>
-    <t>新兵盾牌Ⅱ</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>S Armor</t>
-  </si>
-  <si>
-    <t>SP Armor</t>
-  </si>
-  <si>
-    <t>新兵盾牌Ⅲ</t>
-  </si>
-  <si>
-    <t>Pack测试</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
-    <t>MA测试</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>TypeFactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mechs Balance Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipments Balance Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageRandomEnemySoldier10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔高达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnSelfAttack -&gt; Heal2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽高达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unicorn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽高达H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnDie -&gt; Summon Self(H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新安洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Zeon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强袭自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strike Freedom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水翼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Swing</t>
-  </si>
-  <si>
-    <t>全装甲独角兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA Unicorn</t>
-  </si>
-  <si>
-    <t>Gundam Dynames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子步枪III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哨戒炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentry Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CounterAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击步枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper Gun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sniper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KillOne -&gt; Self Attack +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重装强袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taunt, OnRetinueSummon-&gt;DamageRandom2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taunt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德天使高达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taunt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gundam Virtue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主天使高达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gundam Kyrios</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KillOne -&gt; Self WeaponEnergy +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能天使高达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能天使高达X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gundam Exia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力天使高达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gundam Dynames X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力天使高达X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gundam Exia X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德天使高达X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gundam Virtue X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主天使高达X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gundam Kyrios X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawCards2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taunt,DrawCards1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神高达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>God Gundam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突袭小队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strike Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大魔[攻击]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dom(Attack)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大魔[防守]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dom(Defence)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突袭者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summon Dom(Attack) and Dom(Defence)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summon Striker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Striker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狙击型吉姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper Jim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAT-X131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX-785</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1151,7 +1212,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1173,7 +1234,7 @@
     <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1322,21 +1383,21 @@
         <v>200</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="T4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5" s="9">
         <v>6</v>
@@ -1382,7 +1443,7 @@
         <v>400</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.15">
@@ -1434,7 +1495,7 @@
         <v>350</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1494,7 +1555,7 @@
         <v>700</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="S7">
         <v>3</v>
@@ -1505,7 +1566,7 @@
     </row>
     <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>38</v>
@@ -1552,7 +1613,7 @@
         <v>250</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -1563,10 +1624,10 @@
     </row>
     <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C9" s="9">
         <v>7</v>
@@ -1611,7 +1672,7 @@
         <v>400</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="S9">
         <v>6</v>
@@ -1622,10 +1683,10 @@
     </row>
     <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C10" s="9">
         <v>0</v>
@@ -1676,10 +1737,10 @@
     </row>
     <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C11" s="9">
         <v>6</v>
@@ -1732,10 +1793,10 @@
     </row>
     <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C12" s="9">
         <v>8</v>
@@ -1788,10 +1849,10 @@
     </row>
     <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" s="9">
         <v>0</v>
@@ -1844,10 +1905,10 @@
     </row>
     <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C14" s="9">
         <v>8</v>
@@ -1893,15 +1954,15 @@
         <v>700</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C15" s="9">
         <v>5</v>
@@ -1945,15 +2006,15 @@
         <v>250</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="C16" s="9">
         <v>5</v>
@@ -1997,15 +2058,15 @@
         <v>300</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -2049,15 +2110,15 @@
         <v>250</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
@@ -2101,15 +2162,15 @@
         <v>300</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C19" s="9">
         <v>4</v>
@@ -2153,15 +2214,15 @@
         <v>250</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C20" s="9">
         <v>4</v>
@@ -2205,15 +2266,15 @@
         <v>300</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C21" s="9">
         <v>4</v>
@@ -2257,15 +2318,15 @@
         <v>250</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C22" s="9">
         <v>4</v>
@@ -2309,15 +2370,15 @@
         <v>300</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C23" s="9">
         <v>5</v>
@@ -2888,15 +2949,15 @@
         <v>400</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -2939,10 +3000,10 @@
     </row>
     <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
@@ -2985,10 +3046,10 @@
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C37" s="9">
         <v>2</v>
@@ -3022,26 +3083,26 @@
       </c>
       <c r="M37" s="12">
         <f>O41</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P37" s="10">
         <v>200</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -3084,10 +3145,10 @@
     </row>
     <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C39" s="9">
         <v>4</v>
@@ -3131,15 +3192,15 @@
         <v>400</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C40" s="9">
         <v>3</v>
@@ -3183,15 +3244,15 @@
         <v>200</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C41" s="9">
         <v>5</v>
@@ -3218,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="11">
         <v>0</v>
@@ -3227,126 +3288,133 @@
       <c r="N41" s="12"/>
       <c r="O41" s="13">
         <f t="shared" ref="O41" si="3">(-3)*C41+(-1)*D41+1*E41+3*F41+(IF( G41&gt;3, 5*(G41-3)+3*3,3*G41))+1*H41+3*I41+3*J41+5*K41+5*L41+M41+N41</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P41" s="10">
         <v>200</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="16" t="s">
+    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A42" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>5</v>
+      </c>
+      <c r="F42" s="10">
+        <v>3</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="13">
+        <f>(-3)*C42+(-1)*D42+1*E42+3*F42+(IF( G42&gt;3, 5*(G42-3)+3*3,3*G42))+1*H42+3*I42+3*J42+5*K42+5*L42+M42+N42</f>
+        <v>8</v>
+      </c>
+      <c r="P42" s="10">
+        <v>200</v>
+      </c>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="3" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A45" s="14"/>
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O44" s="22" t="s">
+      <c r="O45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="22"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A45" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="9">
-        <v>3</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0</v>
-      </c>
-      <c r="E45" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="10">
-        <v>5</v>
-      </c>
-      <c r="I45" s="10">
-        <v>0</v>
-      </c>
-      <c r="J45" s="10">
-        <v>0</v>
-      </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="13">
-        <f>(-3)*C45+(-1)*D45+E45*(1*F45+0.5*G45+0.3*H45+2*I45+1*J45)+K45+L45</f>
-        <v>-4.5</v>
-      </c>
-      <c r="N45" s="10"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="19"/>
+      <c r="P45" s="22"/>
     </row>
     <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="9">
         <v>3</v>
@@ -3355,16 +3423,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F46" s="10">
         <v>1</v>
       </c>
       <c r="G46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I46" s="10">
         <v>0</v>
@@ -3375,19 +3443,21 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="13">
-        <f t="shared" ref="M46:M59" si="4">(-3)*C46+(-1)*D46+E46*(1*F46+0.5*G46+0.3*H46+2*I46+1*J46)+K46+L46</f>
-        <v>-3.3000000000000007</v>
-      </c>
-      <c r="N46" s="10"/>
+        <f>(-3)*C46+(-1)*D46+E46*(1*F46+0.5*G46+0.3*H46+2*I46+1*J46)+K46+L46</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="10">
+        <v>50</v>
+      </c>
       <c r="O46" s="18"/>
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="9">
         <v>3</v>
@@ -3396,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="10">
         <v>1</v>
       </c>
       <c r="G47" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -3416,37 +3486,39 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="13">
-        <f t="shared" si="4"/>
-        <v>-2.1000000000000005</v>
-      </c>
-      <c r="N47" s="10"/>
+        <f t="shared" ref="M47:M65" si="4">(-3)*C47+(-1)*D47+E47*(1*F47+0.5*G47+0.3*H47+2*I47+1*J47)+K47+L47</f>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="N47" s="10">
+        <v>100</v>
+      </c>
       <c r="O47" s="18"/>
       <c r="P47" s="19"/>
     </row>
     <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C48" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="9">
         <v>0</v>
       </c>
       <c r="E48" s="17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F48" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I48" s="10">
         <v>0</v>
@@ -3458,18 +3530,20 @@
       <c r="L48" s="12"/>
       <c r="M48" s="13">
         <f t="shared" si="4"/>
-        <v>-0.90000000000000036</v>
-      </c>
-      <c r="N48" s="10"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="N48" s="10">
+        <v>200</v>
+      </c>
       <c r="O48" s="18"/>
       <c r="P48" s="19"/>
     </row>
     <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="9">
         <v>2</v>
@@ -3478,16 +3552,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I49" s="10">
         <v>0</v>
@@ -3499,18 +3573,20 @@
       <c r="L49" s="12"/>
       <c r="M49" s="13">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N49" s="10"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="N49" s="10">
+        <v>200</v>
+      </c>
       <c r="O49" s="18"/>
       <c r="P49" s="19"/>
     </row>
     <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="9">
         <v>2</v>
@@ -3519,16 +3595,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="10">
         <v>1</v>
       </c>
       <c r="G50" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I50" s="10">
         <v>0</v>
@@ -3540,18 +3616,20 @@
       <c r="L50" s="12"/>
       <c r="M50" s="13">
         <f t="shared" si="4"/>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="N50" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="N50" s="10">
+        <v>200</v>
+      </c>
       <c r="O50" s="18"/>
       <c r="P50" s="19"/>
     </row>
     <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="9">
         <v>2</v>
@@ -3560,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="10">
         <v>1</v>
       </c>
       <c r="G51" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H51" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" s="10">
         <v>0</v>
@@ -3581,18 +3659,20 @@
       <c r="L51" s="12"/>
       <c r="M51" s="13">
         <f t="shared" si="4"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="N51" s="10"/>
+        <v>5.6</v>
+      </c>
+      <c r="N51" s="10">
+        <v>250</v>
+      </c>
       <c r="O51" s="18"/>
       <c r="P51" s="19"/>
     </row>
     <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C52" s="9">
         <v>2</v>
@@ -3604,37 +3684,41 @@
         <v>2</v>
       </c>
       <c r="F52" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H52" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I52" s="10">
-        <v>1</v>
-      </c>
-      <c r="J52" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="10">
+        <v>0</v>
+      </c>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="13">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="N52" s="10"/>
+        <f>(-3)*C52+(-1)*D52+E52*(1*F52+0.5*G52+0.3*H52+2*I52+1*J52)+K52+L52</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="N52" s="10">
+        <v>350</v>
+      </c>
       <c r="O52" s="18"/>
       <c r="P52" s="19"/>
     </row>
     <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C53" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
@@ -3643,16 +3727,16 @@
         <v>2</v>
       </c>
       <c r="F53" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" s="10">
         <v>0</v>
@@ -3660,22 +3744,24 @@
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N53" s="10"/>
+        <f>(-3)*C53+(-1)*D53+E53*(1*F53+0.5*G53+0.3*H53+2*I53+1*J53)+K53+L53</f>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="N53" s="10">
+        <v>200</v>
+      </c>
       <c r="O53" s="18"/>
       <c r="P53" s="19"/>
     </row>
     <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C54" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" s="9">
         <v>0</v>
@@ -3684,16 +3770,16 @@
         <v>2</v>
       </c>
       <c r="F54" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I54" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" s="10">
         <v>0</v>
@@ -3701,60 +3787,64 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N54" s="10"/>
+        <f>(-3)*C54+(-1)*D54+E54*(1*F54+0.5*G54+0.3*H54+2*I54+1*J54)+K54+L54</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="N54" s="10">
+        <v>300</v>
+      </c>
       <c r="O54" s="18"/>
       <c r="P54" s="19"/>
     </row>
     <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="15" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="C55" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" s="9">
         <v>0</v>
       </c>
       <c r="E55" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I55" s="10">
         <v>0</v>
       </c>
       <c r="J55" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N55" s="10"/>
+        <f>(-3)*C55+(-1)*D55+E55*(1*F55+0.5*G55+0.3*H55+2*I55+1*J55)+K55+L55</f>
+        <v>-1</v>
+      </c>
+      <c r="N55" s="10">
+        <v>400</v>
+      </c>
       <c r="O55" s="18"/>
       <c r="P55" s="19"/>
     </row>
     <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="15" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="C56" s="9">
         <v>2</v>
@@ -3763,39 +3853,45 @@
         <v>0</v>
       </c>
       <c r="E56" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H56" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I56" s="10">
         <v>0</v>
       </c>
       <c r="J56" s="10">
-        <v>6</v>
-      </c>
-      <c r="K56" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <v>5</v>
+      </c>
       <c r="L56" s="12"/>
       <c r="M56" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="10"/>
-      <c r="O56" s="18"/>
+        <f>(-3)*C56+(-1)*D56+E56*(1*F56+0.5*G56+0.3*H56+2*I56+1*J56)+K56+L56</f>
+        <v>14.2</v>
+      </c>
+      <c r="N56" s="10">
+        <v>300</v>
+      </c>
+      <c r="O56" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="P56" s="19"/>
     </row>
     <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="15" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="C57" s="9">
         <v>3</v>
@@ -3804,50 +3900,58 @@
         <v>0</v>
       </c>
       <c r="E57" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="10">
         <v>0</v>
       </c>
       <c r="J57" s="10">
-        <v>8</v>
-      </c>
-      <c r="K57" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="12">
+        <v>5</v>
+      </c>
       <c r="L57" s="12"/>
       <c r="M57" s="13">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N57" s="10"/>
-      <c r="O57" s="18"/>
+        <f>(-3)*C57+(-1)*D57+E57*(1*F57+0.5*G57+0.3*H57+2*I57+1*J57)+K57+L57</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N57" s="10">
+        <v>300</v>
+      </c>
+      <c r="O57" s="18" t="s">
+        <v>157</v>
+      </c>
       <c r="P57" s="19"/>
     </row>
     <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="15" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C58" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" s="9">
         <v>0</v>
       </c>
       <c r="E58" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="F58" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
       <c r="G58" s="10">
         <v>0</v>
       </c>
@@ -3855,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="10">
         <v>0</v>
@@ -3864,29 +3968,33 @@
       <c r="L58" s="12"/>
       <c r="M58" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="10"/>
+        <v>-2</v>
+      </c>
+      <c r="N58" s="10">
+        <v>200</v>
+      </c>
       <c r="O58" s="18"/>
       <c r="P58" s="19"/>
     </row>
     <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="15" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C59" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="9">
         <v>0</v>
       </c>
       <c r="E59" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="F59" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
       <c r="G59" s="10">
         <v>0</v>
       </c>
@@ -3894,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" s="10">
         <v>0</v>
@@ -3903,32 +4011,289 @@
       <c r="L59" s="12"/>
       <c r="M59" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="N59" s="10">
+        <v>250</v>
+      </c>
       <c r="O59" s="18"/>
       <c r="P59" s="19"/>
     </row>
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A60" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="9">
+        <v>3</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0</v>
+      </c>
+      <c r="E60" s="17">
+        <v>2</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10">
+        <v>3</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0</v>
+      </c>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N60" s="10">
+        <v>300</v>
+      </c>
+      <c r="O60" s="18"/>
+      <c r="P60" s="19"/>
+    </row>
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A61" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="17">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0</v>
+      </c>
+      <c r="J61" s="10">
+        <v>4</v>
+      </c>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N61" s="10">
+        <v>50</v>
+      </c>
+      <c r="O61" s="18"/>
+      <c r="P61" s="19"/>
+    </row>
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A62" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="9">
+        <v>2</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0</v>
+      </c>
+      <c r="J62" s="10">
+        <v>6</v>
+      </c>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="10">
+        <v>100</v>
+      </c>
+      <c r="O62" s="18"/>
+      <c r="P62" s="19"/>
+    </row>
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A63" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="9">
+        <v>3</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0</v>
+      </c>
+      <c r="E63" s="17">
+        <v>1</v>
+      </c>
+      <c r="F63" s="10">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+      <c r="J63" s="10">
+        <v>8</v>
+      </c>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="13">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="N63" s="10">
+        <v>150</v>
+      </c>
+      <c r="O63" s="18"/>
+      <c r="P63" s="19"/>
+    </row>
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A64" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="9">
+        <v>0</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0</v>
+      </c>
+      <c r="J64" s="10">
+        <v>0</v>
+      </c>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="10"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="19"/>
+    </row>
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A65" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="9">
+        <v>0</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0</v>
+      </c>
+      <c r="J65" s="10">
+        <v>0</v>
+      </c>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="10"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="23">
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O49:P49"/>
     <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O51:P51"/>
     <mergeCell ref="O52:P52"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="O53:P53"/>
     <mergeCell ref="O54:P54"/>
     <mergeCell ref="O55:P55"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O53:P53"/>
     <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="O64:P64"/>
     <mergeCell ref="O45:P45"/>
     <mergeCell ref="O46:P46"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O49:P49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/随从数值平衡表.xlsx
+++ b/随从数值平衡表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目\CardGame\MyFirstCardGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyCardGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -611,8 +611,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,11 +1194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -1210,7 +1210,7 @@
     <col min="17" max="17" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="23.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="15">
       <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
         <v>75</v>
@@ -1282,7 +1282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="15">
       <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="14.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="14.25">
       <c r="A5" s="15" t="s">
         <v>97</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="14.25">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="14.25">
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="14.25">
       <c r="A8" s="15" t="s">
         <v>80</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="14.25">
       <c r="A9" s="15" t="s">
         <v>82</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="14.25">
       <c r="A10" s="15" t="s">
         <v>84</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="14.25">
       <c r="A11" s="15" t="s">
         <v>86</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="14.25">
       <c r="A12" s="15" t="s">
         <v>88</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="14.25">
       <c r="A13" s="15" t="s">
         <v>90</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="14.25">
       <c r="A14" s="15" t="s">
         <v>92</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="14.25">
       <c r="A15" s="15" t="s">
         <v>109</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="14.25">
       <c r="A16" s="15" t="s">
         <v>110</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="14.25">
       <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="14.25">
       <c r="A18" s="15" t="s">
         <v>114</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="14.25">
       <c r="A19" s="15" t="s">
         <v>103</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="14.25">
       <c r="A20" s="15" t="s">
         <v>116</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="14.25">
       <c r="A21" s="15" t="s">
         <v>106</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="14.25">
       <c r="A22" s="15" t="s">
         <v>118</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="14.25">
       <c r="A23" s="15" t="s">
         <v>122</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="15">
       <c r="A24" s="15"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -2442,7 +2442,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="14.25">
       <c r="A25" s="15" t="s">
         <v>15</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="14.25">
       <c r="A26" s="15" t="s">
         <v>16</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="14.25">
       <c r="A27" s="15" t="s">
         <v>17</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="14.25">
       <c r="A28" s="15" t="s">
         <v>18</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="14.25">
       <c r="A29" s="15" t="s">
         <v>20</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="14.25">
       <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="14.25">
       <c r="A31" s="15" t="s">
         <v>21</v>
       </c>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="14.25">
       <c r="A32" s="15" t="s">
         <v>22</v>
       </c>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="14.25">
       <c r="A33" s="15" t="s">
         <v>23</v>
       </c>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" ht="14.25">
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" ht="14.25">
       <c r="A35" s="15" t="s">
         <v>126</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" ht="14.25">
       <c r="A36" s="15" t="s">
         <v>128</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" ht="14.25">
       <c r="A37" s="15" t="s">
         <v>124</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" ht="14.25">
       <c r="A38" s="15" t="s">
         <v>130</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" ht="14.25">
       <c r="A39" s="15" t="s">
         <v>134</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" ht="15">
       <c r="A40" s="15" t="s">
         <v>137</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" ht="15">
       <c r="A41" s="15" t="s">
         <v>138</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" ht="14.25">
       <c r="A42" s="15" t="s">
         <v>140</v>
       </c>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="Q42" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="23.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="23.25">
       <c r="A44" s="21" t="s">
         <v>76</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
     </row>
-    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" ht="15">
       <c r="A45" s="14"/>
       <c r="B45" s="1" t="s">
         <v>75</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" ht="14.25">
       <c r="A46" s="15" t="s">
         <v>48</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="O46" s="18"/>
       <c r="P46" s="19"/>
     </row>
-    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" ht="14.25">
       <c r="A47" s="15" t="s">
         <v>50</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="O47" s="18"/>
       <c r="P47" s="19"/>
     </row>
-    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" ht="14.25">
       <c r="A48" s="15" t="s">
         <v>53</v>
       </c>
@@ -3538,7 +3538,7 @@
       <c r="O48" s="18"/>
       <c r="P48" s="19"/>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" ht="14.25">
       <c r="A49" s="15" t="s">
         <v>54</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="O49" s="18"/>
       <c r="P49" s="19"/>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="14.25">
       <c r="A50" s="15" t="s">
         <v>56</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="O50" s="18"/>
       <c r="P50" s="19"/>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" ht="14.25">
       <c r="A51" s="15" t="s">
         <v>58</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="O51" s="18"/>
       <c r="P51" s="19"/>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" ht="14.25">
       <c r="A52" s="15" t="s">
         <v>61</v>
       </c>
@@ -3701,7 +3701,7 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="13">
-        <f>(-3)*C52+(-1)*D52+E52*(1*F52+0.5*G52+0.3*H52+2*I52+1*J52)+K52+L52</f>
+        <f t="shared" ref="M52:M57" si="5">(-3)*C52+(-1)*D52+E52*(1*F52+0.5*G52+0.3*H52+2*I52+1*J52)+K52+L52</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="N52" s="10">
@@ -3710,7 +3710,7 @@
       <c r="O52" s="18"/>
       <c r="P52" s="19"/>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" ht="14.25">
       <c r="A53" s="15" t="s">
         <v>141</v>
       </c>
@@ -3727,13 +3727,13 @@
         <v>2</v>
       </c>
       <c r="F53" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" s="10">
         <v>0</v>
@@ -3744,8 +3744,8 @@
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="13">
-        <f>(-3)*C53+(-1)*D53+E53*(1*F53+0.5*G53+0.3*H53+2*I53+1*J53)+K53+L53</f>
-        <v>1.8000000000000007</v>
+        <f t="shared" si="5"/>
+        <v>-3.8</v>
       </c>
       <c r="N53" s="10">
         <v>200</v>
@@ -3753,7 +3753,7 @@
       <c r="O53" s="18"/>
       <c r="P53" s="19"/>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" ht="14.25">
       <c r="A54" s="15" t="s">
         <v>143</v>
       </c>
@@ -3770,13 +3770,13 @@
         <v>2</v>
       </c>
       <c r="F54" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" s="10">
         <v>0</v>
@@ -3787,8 +3787,8 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="13">
-        <f>(-3)*C54+(-1)*D54+E54*(1*F54+0.5*G54+0.3*H54+2*I54+1*J54)+K54+L54</f>
-        <v>0.40000000000000036</v>
+        <f t="shared" si="5"/>
+        <v>-5.2</v>
       </c>
       <c r="N54" s="10">
         <v>300</v>
@@ -3796,7 +3796,7 @@
       <c r="O54" s="18"/>
       <c r="P54" s="19"/>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" ht="14.25">
       <c r="A55" s="15" t="s">
         <v>151</v>
       </c>
@@ -3813,13 +3813,13 @@
         <v>2</v>
       </c>
       <c r="F55" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I55" s="10">
         <v>0</v>
@@ -3830,8 +3830,8 @@
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="13">
-        <f>(-3)*C55+(-1)*D55+E55*(1*F55+0.5*G55+0.3*H55+2*I55+1*J55)+K55+L55</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-6.6</v>
       </c>
       <c r="N55" s="10">
         <v>400</v>
@@ -3839,7 +3839,7 @@
       <c r="O55" s="18"/>
       <c r="P55" s="19"/>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" ht="14.25">
       <c r="A56" s="15" t="s">
         <v>152</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="L56" s="12"/>
       <c r="M56" s="13">
-        <f>(-3)*C56+(-1)*D56+E56*(1*F56+0.5*G56+0.3*H56+2*I56+1*J56)+K56+L56</f>
+        <f t="shared" si="5"/>
         <v>14.2</v>
       </c>
       <c r="N56" s="10">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="P56" s="19"/>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" ht="14.25">
       <c r="A57" s="15" t="s">
         <v>155</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="13">
-        <f>(-3)*C57+(-1)*D57+E57*(1*F57+0.5*G57+0.3*H57+2*I57+1*J57)+K57+L57</f>
+        <f t="shared" si="5"/>
         <v>17.600000000000001</v>
       </c>
       <c r="N57" s="10">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="P57" s="19"/>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" ht="14.25">
       <c r="A58" s="15" t="s">
         <v>146</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="O58" s="18"/>
       <c r="P58" s="19"/>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" ht="14.25">
       <c r="A59" s="15" t="s">
         <v>147</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="O59" s="18"/>
       <c r="P59" s="19"/>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" ht="14.25">
       <c r="A60" s="15" t="s">
         <v>149</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="O60" s="18"/>
       <c r="P60" s="19"/>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" ht="14.25">
       <c r="A61" s="15" t="s">
         <v>148</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="O61" s="18"/>
       <c r="P61" s="19"/>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" ht="14.25">
       <c r="A62" s="15" t="s">
         <v>62</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="O62" s="18"/>
       <c r="P62" s="19"/>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" ht="14.25">
       <c r="A63" s="15" t="s">
         <v>66</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="O63" s="18"/>
       <c r="P63" s="19"/>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" ht="14.25">
       <c r="A64" s="15" t="s">
         <v>67</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="O64" s="18"/>
       <c r="P64" s="19"/>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" ht="14.25">
       <c r="A65" s="15" t="s">
         <v>69</v>
       </c>
@@ -4271,15 +4271,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O53:P53"/>
     <mergeCell ref="O58:P58"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="O65:P65"/>
@@ -4294,6 +4285,15 @@
     <mergeCell ref="O46:P46"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O53:P53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
